--- a/v0.7.1/StructureDefinition-organization-extension.xlsx
+++ b/v0.7.1/StructureDefinition-organization-extension.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A signature attesting to the content</t>
@@ -826,10 +830,10 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>19</v>
@@ -892,7 +896,7 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -903,10 +907,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -917,7 +921,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -929,13 +933,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -986,13 +990,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1001,15 +1005,15 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1032,13 +1036,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1077,19 +1081,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1101,7 +1105,7 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1109,10 +1113,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1120,10 +1124,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1135,16 +1139,16 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1152,7 +1156,7 @@
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S5" t="s" s="2">
         <v>73</v>
@@ -1194,13 +1198,13 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
@@ -1209,15 +1213,15 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1225,10 +1229,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1240,13 +1244,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1297,22 +1301,22 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
